--- a/out/stats/potential_pos_overall_ind_stats.xlsx
+++ b/out/stats/potential_pos_overall_ind_stats.xlsx
@@ -621,7 +621,7 @@
         <v>487.5714285714286</v>
       </c>
       <c r="L3">
-        <v>388.0406857142858</v>
+        <v>388.0406857142857</v>
       </c>
       <c r="M3">
         <v>115</v>
@@ -642,7 +642,7 @@
         <v>996.3333333333334</v>
       </c>
       <c r="S3">
-        <v>14.13770370370371</v>
+        <v>14.1377037037037</v>
       </c>
       <c r="T3">
         <v>51.25</v>
@@ -683,7 +683,7 @@
         <v>151.3107807823104</v>
       </c>
       <c r="L4">
-        <v>1691.515483506603</v>
+        <v>1691.515483506602</v>
       </c>
       <c r="M4">
         <v>86</v>
@@ -1147,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>526.6861111111111</v>
+        <v>526.686111111111</v>
       </c>
       <c r="C3">
         <v>691.9320768885103</v>
@@ -1186,7 +1186,7 @@
         <v>947</v>
       </c>
       <c r="O3">
-        <v>370.6788785714285</v>
+        <v>370.6788785714286</v>
       </c>
       <c r="P3">
         <v>14.42045777777778</v>
@@ -1212,7 +1212,7 @@
         <v>68.61876552874124</v>
       </c>
       <c r="E4">
-        <v>698.1505071189708</v>
+        <v>698.1505071189709</v>
       </c>
       <c r="F4">
         <v>234.6012465332303</v>
@@ -2109,13 +2109,13 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>507.0749596774194</v>
+        <v>507.0749596774193</v>
       </c>
       <c r="C3">
         <v>696.6942904053535</v>
       </c>
       <c r="D3">
-        <v>198.3048153716332</v>
+        <v>198.3048153716333</v>
       </c>
       <c r="E3">
         <v>1318.356666666667</v>
@@ -2142,7 +2142,7 @@
         <v>1016.666666666667</v>
       </c>
       <c r="M3">
-        <v>302.2498444444445</v>
+        <v>302.2498444444444</v>
       </c>
       <c r="N3">
         <v>15.01424133333333</v>
@@ -2165,7 +2165,7 @@
         <v>429.0410613931758</v>
       </c>
       <c r="D4">
-        <v>76.34792202361118</v>
+        <v>76.34792202361116</v>
       </c>
       <c r="E4">
         <v>615.3627532006358</v>
@@ -2192,7 +2192,7 @@
         <v>286.3814472575578</v>
       </c>
       <c r="M4">
-        <v>74.80237583401568</v>
+        <v>74.80237583401566</v>
       </c>
       <c r="N4">
         <v>38.4033040754633</v>
@@ -3023,13 +3023,13 @@
         <v>115</v>
       </c>
       <c r="K3">
-        <v>227.8500000000001</v>
+        <v>227.85</v>
       </c>
       <c r="L3">
         <v>1638.9</v>
       </c>
       <c r="M3">
-        <v>769.8868797766999</v>
+        <v>769.8868797766996</v>
       </c>
       <c r="N3">
         <v>300.08</v>
@@ -3476,7 +3476,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>41.15156312417818</v>
+        <v>41.15156312417819</v>
       </c>
       <c r="C4">
         <v>73.2600588065102</v>
@@ -3871,13 +3871,13 @@
         <v>180.4023922585795</v>
       </c>
       <c r="E3">
-        <v>861.2603110241953</v>
+        <v>861.2603110241955</v>
       </c>
       <c r="F3">
         <v>1503.485</v>
       </c>
       <c r="G3">
-        <v>929.6383037886687</v>
+        <v>929.6383037886688</v>
       </c>
       <c r="H3">
         <v>251.2841260517192</v>
@@ -3927,7 +3927,7 @@
         <v>575.5324466871947</v>
       </c>
       <c r="H4">
-        <v>76.57750410398612</v>
+        <v>76.5775041039861</v>
       </c>
       <c r="I4">
         <v>20.85286551052397</v>
@@ -3942,7 +3942,7 @@
         <v>42.16407961580999</v>
       </c>
       <c r="M4">
-        <v>72.48890029275745</v>
+        <v>72.48890029275746</v>
       </c>
       <c r="N4">
         <v>10</v>
